--- a/MFEM-Auswertung.xlsx
+++ b/MFEM-Auswertung.xlsx
@@ -427,6 +427,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -771,7 +774,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -882,6 +885,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -889,29 +904,29 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -927,17 +942,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1101,7 +1107,7 @@
                   <c:v>0.916666666666667</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.916666666666667</c:v>
+                  <c:v>0.888333333333333</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1.0</c:v>
@@ -1118,11 +1124,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="610779312"/>
-        <c:axId val="610820912"/>
+        <c:axId val="1385676448"/>
+        <c:axId val="1385679200"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="610779312"/>
+        <c:axId val="1385676448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1165,7 +1171,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="610820912"/>
+        <c:crossAx val="1385679200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1173,7 +1179,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="610820912"/>
+        <c:axId val="1385679200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -1224,7 +1230,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="610779312"/>
+        <c:crossAx val="1385676448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2179,8 +2185,8 @@
   </sheetPr>
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2230,7 +2236,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="51" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="14">
@@ -2263,14 +2269,14 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="50"/>
-      <c r="B3" s="46">
+      <c r="A3" s="51"/>
+      <c r="B3" s="52">
         <v>2</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="48" t="s">
         <v>107</v>
       </c>
       <c r="E3" s="14">
@@ -2294,10 +2300,10 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="53"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
       <c r="E4" s="15">
         <v>3</v>
       </c>
@@ -2319,14 +2325,14 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="53"/>
-      <c r="B5" s="46">
+      <c r="A5" s="54"/>
+      <c r="B5" s="52">
         <v>3</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="D5" s="48" t="s">
         <v>108</v>
       </c>
       <c r="E5" s="14">
@@ -2350,10 +2356,10 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="53"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
+      <c r="A6" s="54"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
       <c r="E6" s="14">
         <v>5</v>
       </c>
@@ -2375,14 +2381,14 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="53"/>
-      <c r="B7" s="46">
+      <c r="A7" s="54"/>
+      <c r="B7" s="52">
         <v>16</v>
       </c>
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="D7" s="44" t="s">
+      <c r="D7" s="48" t="s">
         <v>108</v>
       </c>
       <c r="E7" s="14">
@@ -2406,10 +2412,10 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="53"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
+      <c r="A8" s="54"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
       <c r="E8" s="14">
         <v>26</v>
       </c>
@@ -2431,7 +2437,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="53"/>
+      <c r="A9" s="54"/>
       <c r="B9" s="15">
         <v>4</v>
       </c>
@@ -2462,16 +2468,16 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="46">
+      <c r="B10" s="52">
         <v>5</v>
       </c>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="44" t="s">
+      <c r="D10" s="48" t="s">
         <v>107</v>
       </c>
       <c r="E10" s="14">
@@ -2495,10 +2501,10 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="49"/>
-      <c r="B11" s="47"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
+      <c r="A11" s="55"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
       <c r="E11" s="37">
         <v>27</v>
       </c>
@@ -2520,7 +2526,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="49"/>
+      <c r="A12" s="55"/>
       <c r="B12" s="14">
         <v>6</v>
       </c>
@@ -2551,7 +2557,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="50"/>
+      <c r="A13" s="51"/>
       <c r="B13" s="15">
         <v>7</v>
       </c>
@@ -2582,16 +2588,16 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="49" t="s">
+      <c r="A14" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="46">
+      <c r="B14" s="52">
         <v>8</v>
       </c>
-      <c r="C14" s="44" t="s">
+      <c r="C14" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="44" t="s">
+      <c r="D14" s="48" t="s">
         <v>108</v>
       </c>
       <c r="E14" s="15">
@@ -2615,10 +2621,10 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="49"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
+      <c r="A15" s="55"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
       <c r="E15" s="14">
         <v>11</v>
       </c>
@@ -2640,20 +2646,20 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="49"/>
-      <c r="B16" s="46">
+      <c r="A16" s="55"/>
+      <c r="B16" s="52">
         <v>9</v>
       </c>
-      <c r="C16" s="44" t="s">
+      <c r="C16" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="44" t="s">
+      <c r="D16" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="E16" s="46">
+      <c r="E16" s="52">
         <v>12</v>
       </c>
-      <c r="F16" s="44" t="s">
+      <c r="F16" s="48" t="s">
         <v>44</v>
       </c>
       <c r="G16" s="29">
@@ -2671,12 +2677,12 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="49"/>
-      <c r="B17" s="51"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="45"/>
+      <c r="A17" s="55"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="49"/>
       <c r="G17" s="29">
         <v>13</v>
       </c>
@@ -2692,10 +2698,10 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="49"/>
-      <c r="B18" s="51"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
+      <c r="A18" s="55"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
       <c r="E18" s="14">
         <v>13</v>
       </c>
@@ -2717,10 +2723,10 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="49"/>
-      <c r="B19" s="47"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
+      <c r="A19" s="55"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
       <c r="E19" s="14">
         <v>14</v>
       </c>
@@ -2742,7 +2748,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="50"/>
+      <c r="A20" s="51"/>
       <c r="B20" s="15">
         <v>10</v>
       </c>
@@ -2773,7 +2779,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="48" t="s">
+      <c r="A21" s="50" t="s">
         <v>15</v>
       </c>
       <c r="B21" s="15">
@@ -2806,7 +2812,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="50"/>
+      <c r="A22" s="51"/>
       <c r="B22" s="14">
         <v>12</v>
       </c>
@@ -2837,16 +2843,16 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="48" t="s">
+      <c r="A23" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="46">
+      <c r="B23" s="52">
         <v>13</v>
       </c>
-      <c r="C23" s="44" t="s">
+      <c r="C23" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="44" t="s">
+      <c r="D23" s="48" t="s">
         <v>107</v>
       </c>
       <c r="E23" s="15">
@@ -2870,10 +2876,10 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="49"/>
-      <c r="B24" s="47"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
+      <c r="A24" s="55"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
       <c r="E24" s="14">
         <v>19</v>
       </c>
@@ -2895,14 +2901,14 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="49"/>
-      <c r="B25" s="46">
+      <c r="A25" s="55"/>
+      <c r="B25" s="52">
         <v>14</v>
       </c>
-      <c r="C25" s="44" t="s">
+      <c r="C25" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="44" t="s">
+      <c r="D25" s="48" t="s">
         <v>109</v>
       </c>
       <c r="E25" s="14">
@@ -2917,19 +2923,19 @@
       <c r="H25" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="I25" s="18">
-        <v>0.15</v>
+      <c r="I25" s="63">
+        <v>0.125</v>
       </c>
       <c r="J25" s="2">
         <f>IFERROR(VLOOKUP($G25,Evaluation!C:F,4,FALSE),0)*I25</f>
-        <v>0.15</v>
+        <v>0.10375</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="50"/>
-      <c r="B26" s="47"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
+      <c r="A26" s="51"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
       <c r="E26" s="14">
         <v>21</v>
       </c>
@@ -2942,25 +2948,25 @@
       <c r="H26" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="I26" s="18">
-        <v>0.1</v>
+      <c r="I26" s="63">
+        <v>0.125</v>
       </c>
       <c r="J26" s="2">
         <f>IFERROR(VLOOKUP($G26,Evaluation!C:F,4,FALSE),0)*I26</f>
-        <v>0.1</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="48" t="s">
+      <c r="A27" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="B27" s="46">
+      <c r="B27" s="52">
         <v>15</v>
       </c>
-      <c r="C27" s="44" t="s">
+      <c r="C27" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="44" t="s">
+      <c r="D27" s="48" t="s">
         <v>107</v>
       </c>
       <c r="E27" s="15">
@@ -2984,14 +2990,14 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="49"/>
-      <c r="B28" s="51"/>
-      <c r="C28" s="52"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="46">
+      <c r="A28" s="55"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="52">
         <v>23</v>
       </c>
-      <c r="F28" s="44" t="s">
+      <c r="F28" s="48" t="s">
         <v>117</v>
       </c>
       <c r="G28" s="29">
@@ -3009,12 +3015,12 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="49"/>
-      <c r="B29" s="51"/>
-      <c r="C29" s="52"/>
-      <c r="D29" s="52"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="45"/>
+      <c r="A29" s="55"/>
+      <c r="B29" s="56"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="49"/>
       <c r="G29" s="29">
         <v>25</v>
       </c>
@@ -3030,10 +3036,10 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="50"/>
-      <c r="B30" s="47"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
+      <c r="A30" s="51"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
       <c r="E30" s="15">
         <v>24</v>
       </c>
@@ -3296,11 +3302,24 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D16:D19"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="C23:C24"/>
     <mergeCell ref="B23:B24"/>
@@ -3315,24 +3334,11 @@
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="C10:C11"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D14:D15"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3347,8 +3353,8 @@
   </sheetPr>
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3381,10 +3387,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="62" t="s">
         <v>112</v>
       </c>
       <c r="C2" s="6">
@@ -3402,8 +3408,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="49"/>
-      <c r="B3" s="53"/>
+      <c r="A3" s="55"/>
+      <c r="B3" s="54"/>
       <c r="C3" s="9">
         <v>11</v>
       </c>
@@ -3419,8 +3425,8 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="49"/>
-      <c r="B4" s="53"/>
+      <c r="A4" s="55"/>
+      <c r="B4" s="54"/>
       <c r="C4" s="7">
         <v>14</v>
       </c>
@@ -3436,8 +3442,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="49"/>
-      <c r="B5" s="55"/>
+      <c r="A5" s="55"/>
+      <c r="B5" s="59"/>
       <c r="C5" s="8"/>
       <c r="D5" s="3" t="str">
         <f>IFERROR(VLOOKUP($C5,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
@@ -3447,8 +3453,8 @@
       <c r="F5" s="26"/>
     </row>
     <row r="6" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="49"/>
-      <c r="B6" s="54" t="s">
+      <c r="A6" s="55"/>
+      <c r="B6" s="58" t="s">
         <v>114</v>
       </c>
       <c r="C6" s="6">
@@ -3466,8 +3472,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="49"/>
-      <c r="B7" s="53"/>
+      <c r="A7" s="55"/>
+      <c r="B7" s="54"/>
       <c r="C7" s="7">
         <v>5</v>
       </c>
@@ -3483,8 +3489,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="49"/>
-      <c r="B8" s="53"/>
+      <c r="A8" s="55"/>
+      <c r="B8" s="54"/>
       <c r="C8" s="7">
         <v>6</v>
       </c>
@@ -3500,8 +3506,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="49"/>
-      <c r="B9" s="53"/>
+      <c r="A9" s="55"/>
+      <c r="B9" s="54"/>
       <c r="C9" s="7">
         <v>17</v>
       </c>
@@ -3517,8 +3523,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="49"/>
-      <c r="B10" s="53"/>
+      <c r="A10" s="55"/>
+      <c r="B10" s="54"/>
       <c r="C10" s="7">
         <v>18</v>
       </c>
@@ -3534,8 +3540,8 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="49"/>
-      <c r="B11" s="53"/>
+      <c r="A11" s="55"/>
+      <c r="B11" s="54"/>
       <c r="C11" s="7">
         <v>19</v>
       </c>
@@ -3551,8 +3557,8 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="49"/>
-      <c r="B12" s="53"/>
+      <c r="A12" s="55"/>
+      <c r="B12" s="54"/>
       <c r="C12" s="7">
         <v>20</v>
       </c>
@@ -3568,8 +3574,8 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="49"/>
-      <c r="B13" s="53"/>
+      <c r="A13" s="55"/>
+      <c r="B13" s="54"/>
       <c r="C13" s="7">
         <v>27</v>
       </c>
@@ -3585,8 +3591,8 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="49"/>
-      <c r="B14" s="53"/>
+      <c r="A14" s="55"/>
+      <c r="B14" s="54"/>
       <c r="C14" s="7">
         <v>28</v>
       </c>
@@ -3602,8 +3608,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="49"/>
-      <c r="B15" s="55"/>
+      <c r="A15" s="55"/>
+      <c r="B15" s="59"/>
       <c r="C15" s="8"/>
       <c r="D15" s="3" t="str">
         <f>IFERROR(VLOOKUP($C15,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
@@ -3613,8 +3619,8 @@
       <c r="F15" s="27"/>
     </row>
     <row r="16" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="49"/>
-      <c r="B16" s="54" t="s">
+      <c r="A16" s="55"/>
+      <c r="B16" s="58" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="6">
@@ -3632,8 +3638,8 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="49"/>
-      <c r="B17" s="53"/>
+      <c r="A17" s="55"/>
+      <c r="B17" s="54"/>
       <c r="C17" s="7">
         <v>2</v>
       </c>
@@ -3649,8 +3655,8 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="49"/>
-      <c r="B18" s="53"/>
+      <c r="A18" s="55"/>
+      <c r="B18" s="54"/>
       <c r="C18" s="7">
         <v>3</v>
       </c>
@@ -3666,8 +3672,8 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="49"/>
-      <c r="B19" s="53"/>
+      <c r="A19" s="55"/>
+      <c r="B19" s="54"/>
       <c r="C19" s="7">
         <v>15</v>
       </c>
@@ -3683,8 +3689,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="49"/>
-      <c r="B20" s="53"/>
+      <c r="A20" s="55"/>
+      <c r="B20" s="54"/>
       <c r="C20" s="7">
         <v>16</v>
       </c>
@@ -3700,8 +3706,8 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="49"/>
-      <c r="B21" s="53"/>
+      <c r="A21" s="55"/>
+      <c r="B21" s="54"/>
       <c r="C21" s="7"/>
       <c r="D21" s="2" t="str">
         <f>IFERROR(VLOOKUP($C21,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
@@ -3711,10 +3717,10 @@
       <c r="F21" s="26"/>
     </row>
     <row r="22" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="56" t="s">
+      <c r="A22" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="58" t="s">
+      <c r="B22" s="62" t="s">
         <v>113</v>
       </c>
       <c r="C22" s="6">
@@ -3732,8 +3738,8 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="49"/>
-      <c r="B23" s="53"/>
+      <c r="A23" s="55"/>
+      <c r="B23" s="54"/>
       <c r="C23" s="7">
         <v>13</v>
       </c>
@@ -3749,8 +3755,8 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="49"/>
-      <c r="B24" s="53"/>
+      <c r="A24" s="55"/>
+      <c r="B24" s="54"/>
       <c r="C24" s="7"/>
       <c r="D24" s="2" t="str">
         <f>IFERROR(VLOOKUP($C24,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
@@ -3760,8 +3766,8 @@
       <c r="F24" s="26"/>
     </row>
     <row r="25" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="49"/>
-      <c r="B25" s="54" t="s">
+      <c r="A25" s="55"/>
+      <c r="B25" s="58" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="6">
@@ -3771,7 +3777,7 @@
         <f>IFERROR(VLOOKUP($C25,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>Latenz Antwort bei Messung an Endpunkt ohne Logik</v>
       </c>
-      <c r="E25" s="59" t="s">
+      <c r="E25" s="44" t="s">
         <v>68</v>
       </c>
       <c r="F25" s="25">
@@ -3779,8 +3785,8 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="49"/>
-      <c r="B26" s="53"/>
+      <c r="A26" s="55"/>
+      <c r="B26" s="54"/>
       <c r="C26" s="7">
         <v>8</v>
       </c>
@@ -3788,7 +3794,7 @@
         <f>IFERROR(VLOOKUP($C26,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>Druchsatz bei 100.000 Anfragen mit 255 echt parallelen Clients in Anfragen/Sek</v>
       </c>
-      <c r="E26" s="60" t="s">
+      <c r="E26" s="45" t="s">
         <v>73</v>
       </c>
       <c r="F26" s="26">
@@ -3796,8 +3802,8 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="49"/>
-      <c r="B27" s="53"/>
+      <c r="A27" s="55"/>
+      <c r="B27" s="54"/>
       <c r="C27" s="7">
         <v>9</v>
       </c>
@@ -3805,7 +3811,7 @@
         <f>IFERROR(VLOOKUP($C27,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>Messung Speicherverbrauch (RSS) unter Last: Kleiner 100MB</v>
       </c>
-      <c r="E27" s="61" t="s">
+      <c r="E27" s="46" t="s">
         <v>69</v>
       </c>
       <c r="F27" s="26">
@@ -3813,8 +3819,8 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="49"/>
-      <c r="B28" s="53"/>
+      <c r="A28" s="55"/>
+      <c r="B28" s="54"/>
       <c r="C28" s="7">
         <v>29</v>
       </c>
@@ -3822,7 +3828,7 @@
         <f>IFERROR(VLOOKUP($C28,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>Messung Startzeit</v>
       </c>
-      <c r="E28" s="61" t="s">
+      <c r="E28" s="46" t="s">
         <v>86</v>
       </c>
       <c r="F28" s="26">
@@ -3830,8 +3836,8 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="49"/>
-      <c r="B29" s="53"/>
+      <c r="A29" s="55"/>
+      <c r="B29" s="54"/>
       <c r="C29" s="7"/>
       <c r="D29" s="2" t="str">
         <f>IFERROR(VLOOKUP($C29,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
@@ -3841,8 +3847,8 @@
       <c r="F29" s="26"/>
     </row>
     <row r="30" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="49"/>
-      <c r="B30" s="54" t="s">
+      <c r="A30" s="55"/>
+      <c r="B30" s="58" t="s">
         <v>24</v>
       </c>
       <c r="C30" s="6">
@@ -3852,16 +3858,16 @@
         <f>IFERROR(VLOOKUP($C30,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>Länge vom Support in Monaten pro Major Release</v>
       </c>
-      <c r="E30" s="59" t="s">
+      <c r="E30" s="44" t="s">
         <v>74</v>
       </c>
       <c r="F30" s="25">
-        <v>1</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="49"/>
-      <c r="B31" s="53"/>
+      <c r="A31" s="55"/>
+      <c r="B31" s="54"/>
       <c r="C31" s="7">
         <v>22</v>
       </c>
@@ -3869,7 +3875,7 @@
         <f>IFERROR(VLOOKUP($C31,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>Kommerzieller Support vorhanden (j/n)</v>
       </c>
-      <c r="E31" s="61" t="s">
+      <c r="E31" s="46" t="s">
         <v>76</v>
       </c>
       <c r="F31" s="26">
@@ -3877,8 +3883,8 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="49"/>
-      <c r="B32" s="53"/>
+      <c r="A32" s="55"/>
+      <c r="B32" s="54"/>
       <c r="C32" s="7">
         <v>23</v>
       </c>
@@ -3886,7 +3892,7 @@
         <f>IFERROR(VLOOKUP($C32,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>Release Zykluslänge bzw. Durchschnittlicher Majorrelease Abstand</v>
       </c>
-      <c r="E32" s="61" t="s">
+      <c r="E32" s="46" t="s">
         <v>75</v>
       </c>
       <c r="F32" s="26">
@@ -3894,8 +3900,8 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="49"/>
-      <c r="B33" s="53"/>
+      <c r="A33" s="55"/>
+      <c r="B33" s="54"/>
       <c r="C33" s="7">
         <v>24</v>
       </c>
@@ -3903,7 +3909,7 @@
         <f>IFERROR(VLOOKUP($C33,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>Businessimpact bei Verlust des Frameworks:_x000D_Ordinalskala(stark, mittel, schwach)</v>
       </c>
-      <c r="E33" s="62" t="s">
+      <c r="E33" s="47" t="s">
         <v>119</v>
       </c>
       <c r="F33" s="26">
@@ -3911,8 +3917,8 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="49"/>
-      <c r="B34" s="53"/>
+      <c r="A34" s="55"/>
+      <c r="B34" s="54"/>
       <c r="C34" s="7">
         <v>25</v>
       </c>
@@ -3920,7 +3926,7 @@
         <f>IFERROR(VLOOKUP($C34,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>Große Firmen die auf das Framework setzen:_x000D_Ordinalskala(viele, wenige, keine)</v>
       </c>
-      <c r="E34" s="62" t="s">
+      <c r="E34" s="47" t="s">
         <v>120</v>
       </c>
       <c r="F34" s="26">
@@ -3928,8 +3934,8 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="49"/>
-      <c r="B35" s="53"/>
+      <c r="A35" s="55"/>
+      <c r="B35" s="54"/>
       <c r="C35" s="7">
         <v>26</v>
       </c>
@@ -3945,8 +3951,8 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="57"/>
-      <c r="B36" s="55"/>
+      <c r="A36" s="61"/>
+      <c r="B36" s="59"/>
       <c r="C36" s="8"/>
       <c r="D36" s="3" t="str">
         <f>IFERROR(VLOOKUP($C36,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
@@ -4077,11 +4083,11 @@
       </c>
       <c r="C11" s="21">
         <f>SUM('QUT-GQM'!J23:J26)</f>
-        <v>0.6875</v>
+        <v>0.66625000000000001</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>0.91666666666666663</v>
+        <v>0.88833333333333331</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
